--- a/Base/Teams/Steelers/Distributions.xlsx
+++ b/Base/Teams/Steelers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.7654954714873113, 0.5225441912257283, 1.4096206213628804, 2.7472757966429984)</t>
-  </si>
-  <si>
-    <t>JSU(-1.3025696624955736, 1.1307480742976819, 2.2336905003272607, 3.772887771598538)</t>
-  </si>
-  <si>
-    <t>JSU(-0.917754503975575, 1.0230791528912084, 0.5716375522360762, 2.7243805273258612)</t>
-  </si>
-  <si>
-    <t>NIG(1.0267685052912139, 0.6713912052354754, 6.042027709241065, 6.332459560234394)</t>
+    <t>NIG(0.8554357770241863, 0.5784844947276736, 1.328195822974933, 2.8466984991903908)</t>
+  </si>
+  <si>
+    <t>JSU(-1.306076532292686, 1.1087364096903665, 2.3115118501021366, 3.6092421672384845)</t>
+  </si>
+  <si>
+    <t>NIG(0.8253126855333224, 0.6292976772765962, 1.2115114658058421, 3.233581705247013)</t>
+  </si>
+  <si>
+    <t>JSU(-0.9931684925593671, 1.3040195147258853, 4.238580997106179, 6.435122387786652)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Steelers/Distributions.xlsx
+++ b/Base/Teams/Steelers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.8554357770241863, 0.5784844947276736, 1.328195822974933, 2.8466984991903908)</t>
-  </si>
-  <si>
-    <t>JSU(-1.306076532292686, 1.1087364096903665, 2.3115118501021366, 3.6092421672384845)</t>
-  </si>
-  <si>
-    <t>NIG(0.8253126855333224, 0.6292976772765962, 1.2115114658058421, 3.233581705247013)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9931684925593671, 1.3040195147258853, 4.238580997106179, 6.435122387786652)</t>
+    <t>NIG(0.8423696626666437, 0.5676861504354533, 1.3446534841860367, 2.885134191327045)</t>
+  </si>
+  <si>
+    <t>NIG(1.2683718253433873, 1.0636170667672702, 3.3685861174046763, 4.521407957255073)</t>
+  </si>
+  <si>
+    <t>NIG(0.8812254748756672, 0.6739984555960135, 1.15119180269309, 3.4136644500348234)</t>
+  </si>
+  <si>
+    <t>JSU(-1.0201909157321887, 1.3136299823044724, 4.103530009428092, 6.590021246927642)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Steelers/Distributions.xlsx
+++ b/Base/Teams/Steelers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.8423696626666437, 0.5676861504354533, 1.3446534841860367, 2.885134191327045)</t>
-  </si>
-  <si>
-    <t>NIG(1.2683718253433873, 1.0636170667672702, 3.3685861174046763, 4.521407957255073)</t>
-  </si>
-  <si>
-    <t>NIG(0.8812254748756672, 0.6739984555960135, 1.15119180269309, 3.4136644500348234)</t>
-  </si>
-  <si>
-    <t>JSU(-1.0201909157321887, 1.3136299823044724, 4.103530009428092, 6.590021246927642)</t>
+    <t>NIG(0.9055176893981262, 0.5987566529066475, 1.337029383951728, 3.065098492186134)</t>
+  </si>
+  <si>
+    <t>JSU(-1.1417515853983575, 1.0599534581957901, 2.742539681853493, 3.604525022500561)</t>
+  </si>
+  <si>
+    <t>NIG(0.9065012229598297, 0.6863998286522617, 1.242806036771225, 3.2838978421660214)</t>
+  </si>
+  <si>
+    <t>JSU(-0.9294905653722012, 1.2603161415622215, 4.425964563092953, 6.201963262063888)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Steelers/Distributions.xlsx
+++ b/Base/Teams/Steelers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.9055176893981262, 0.5987566529066475, 1.337029383951728, 3.065098492186134)</t>
-  </si>
-  <si>
-    <t>JSU(-1.1417515853983575, 1.0599534581957901, 2.742539681853493, 3.604525022500561)</t>
-  </si>
-  <si>
-    <t>NIG(0.9065012229598297, 0.6863998286522617, 1.242806036771225, 3.2838978421660214)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9294905653722012, 1.2603161415622215, 4.425964563092953, 6.201963262063888)</t>
+    <t>NIG(0.8068052433981242, 0.5475239231397175, 1.5059970179533422, 2.9572477800483057)</t>
+  </si>
+  <si>
+    <t>JSU(-1.0932392054973943, 1.0792698804906662, 2.700763781474773, 3.816690434003931)</t>
+  </si>
+  <si>
+    <t>NIG(0.8553989732161207, 0.6483924039590527, 1.3055593656737134, 3.2062767616683585)</t>
+  </si>
+  <si>
+    <t>JSU(-0.9448186720902911, 1.2507624641223174, 4.328167488086834, 6.092634829257609)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Steelers/Distributions.xlsx
+++ b/Base/Teams/Steelers/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.8068052433981242, 0.5475239231397175, 1.5059970179533422, 2.9572477800483057)</t>
-  </si>
-  <si>
-    <t>JSU(-1.0932392054973943, 1.0792698804906662, 2.700763781474773, 3.816690434003931)</t>
-  </si>
-  <si>
-    <t>NIG(0.8553989732161207, 0.6483924039590527, 1.3055593656737134, 3.2062767616683585)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9448186720902911, 1.2507624641223174, 4.328167488086834, 6.092634829257609)</t>
+    <t>NIG(0.7851241119937594, 0.5299201535170931, 1.4494177359248086, 2.926979440564037)</t>
+  </si>
+  <si>
+    <t>JSU(-1.091365778500284, 1.126813637996146, 2.686496195671481, 4.0358092737545945)</t>
+  </si>
+  <si>
+    <t>NIG(0.7871174512452537, 0.6049348799167555, 1.3495175277201257, 3.1737726533969974)</t>
+  </si>
+  <si>
+    <t>JSU(-1.1381429147953068, 1.3276371128744366, 3.0299222165962956, 6.474853360520761)</t>
   </si>
 </sst>
 </file>
